--- a/joe_data/scraped/joe_2025_all_sections.xlsx
+++ b/joe_data/scraped/joe_2025_all_sections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1275">
   <si>
     <t>joe_issue_ID</t>
   </si>
@@ -3449,6 +3449,57 @@
   </si>
   <si>
     <t>2025-08-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Office of the Secretary of Defense</t>
+  </si>
+  <si>
+    <t>Cost Assessment and Program Evaluation (CAPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial organization 
+Applied microeconomics 
+Health 
+Education 
+Defense 
+National security 
+Labor  </t>
+  </si>
+  <si>
+    <t>Operations Research Analyst (Economist)</t>
+  </si>
+  <si>
+    <t>The Office of Cost Assessment and Program Evaluation (CAPE) is an interdisciplinary agency that supports DoD senior leaders through non-advocate, quantitatively driven decision support. Analysts conduct data and policy analysis to help decision makers allocate billions of dollars across the Department of Defense. The DoD welcomes applications from candidates across all fields of study. Economic topics include industrial organization, health, labor, education, and national security.  
+CAPE works to foster intellectual leadership, promote a collaborative interdisciplinary environment, and provide strategic direction to DoD senior leaders. Recruited economists will be expected to conduct independent and collaborative analysis, and present at policy meetings to senior DoD leadership. Previous projects include evaluating labor market conditions in key industries, modeling tradeoffs between outsourcing capabilities and services, and forecasting multi-billion-dollar contract costs. 
+ Qualifications 
+- U.S. citizen and be able to obtain and retain a TS/SCI security clearance. Dual citizens must be prepared to relinquish foreign citizenship.
+ Qualities of Ideal Candidates:  
+- Economics Ph.D.  
+- Interest in policy-driven projects  
+- Enjoy a fast-paced environment  
+- Desire to acquire knowledge beyond their current expertise.  
+ We will consider candidates newly graduated, recent graduates, and mid-career individuals 
+CAPE is an equal opportunity employer.</t>
+  </si>
+  <si>
+    <t>$101,401-$142,488</t>
+  </si>
+  <si>
+    <t>UNITED STATES District of Columbia Pentagon</t>
+  </si>
+  <si>
+    <t>L - Industrial Organization
+L1 - Market Structure, Firm Strategy, and Market Performance
+L3 - Nonprofit Organizations and Public Enterprise
+D4 - Market Structure, Pricing, and Design
+C8 - Data Collection and Data Estimation Methodology; Computer Programs
+F5 - International Relations, National Security, and International Political Economy
+H - Public Economics
+H5 - National Government Expenditures and Related Policies
+I1 - Health
+I2 - Education and Research Institutions
+J - Labor and Demographic Economics
+Z0 - General</t>
   </si>
   <si>
     <t>Opportunity Insights</t>
@@ -7248,7 +7299,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O197"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="O197" sqref="O197"/>
@@ -11018,36 +11069,42 @@
         <v>15</v>
       </c>
       <c r="B91" s="2">
-        <v>111476172</v>
+        <v>111476127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="H91" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="J91" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>160</v>
+        <v>643</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>640</v>
+        <v>176</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -11055,44 +11112,35 @@
         <v>15</v>
       </c>
       <c r="B92">
-        <v>111476067</v>
+        <v>111476172</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D92" t="s">
-        <v>641</v>
-      </c>
-      <c r="E92" t="s">
-        <v>642</v>
-      </c>
-      <c r="F92" t="s">
-        <v>643</v>
-      </c>
-      <c r="G92" t="s">
         <v>644</v>
       </c>
+      <c r="E92"/>
+      <c r="F92"/>
       <c r="H92" t="s">
         <v>645</v>
       </c>
       <c r="I92" t="s">
         <v>646</v>
       </c>
-      <c r="J92" t="s">
-        <v>647</v>
-      </c>
+      <c r="J92"/>
       <c r="K92"/>
       <c r="L92" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M92" t="s">
         <v>160</v>
       </c>
       <c r="N92" t="s">
-        <v>200</v>
+        <v>648</v>
       </c>
       <c r="O92" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -11100,7 +11148,7 @@
         <v>15</v>
       </c>
       <c r="B93" s="2">
-        <v>111476146</v>
+        <v>111476067</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
@@ -11108,32 +11156,36 @@
       <c r="D93" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="G93" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>50</v>
+        <v>655</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>160</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>654</v>
+        <v>200</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -11141,44 +11193,40 @@
         <v>15</v>
       </c>
       <c r="B94">
-        <v>111476074</v>
+        <v>111476146</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>655</v>
-      </c>
-      <c r="E94" t="s">
-        <v>656</v>
-      </c>
-      <c r="F94" t="s">
-        <v>63</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
       <c r="G94" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H94" t="s">
-        <v>92</v>
+        <v>659</v>
       </c>
       <c r="I94" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J94" t="s">
-        <v>659</v>
+        <v>50</v>
       </c>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M94" t="s">
-        <v>661</v>
+        <v>160</v>
       </c>
       <c r="N94" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="O94" t="s">
-        <v>429</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -11186,38 +11234,44 @@
         <v>15</v>
       </c>
       <c r="B95" s="2">
-        <v>111476022</v>
+        <v>111476074</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="H95" s="2" t="s">
-        <v>663</v>
+        <v>92</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2">
-        <v>6424312</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>635</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -11225,35 +11279,37 @@
         <v>15</v>
       </c>
       <c r="B96">
-        <v>111476182</v>
+        <v>111476022</v>
       </c>
       <c r="C96" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="H96" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="I96" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J96"/>
-      <c r="K96"/>
+      <c r="K96">
+        <v>6424312</v>
+      </c>
       <c r="L96" t="s">
-        <v>537</v>
+        <v>673</v>
       </c>
       <c r="M96" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="N96" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="O96" t="s">
-        <v>239</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -11261,38 +11317,36 @@
         <v>15</v>
       </c>
       <c r="B97" s="2">
-        <v>111475959</v>
+        <v>111476182</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>676</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2" t="s">
-        <v>677</v>
+        <v>537</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>160</v>
+        <v>679</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -11300,44 +11354,37 @@
         <v>15</v>
       </c>
       <c r="B98">
-        <v>111476109</v>
+        <v>111475959</v>
       </c>
       <c r="C98" t="s">
         <v>153</v>
       </c>
       <c r="D98" t="s">
-        <v>673</v>
-      </c>
-      <c r="E98" t="s">
-        <v>679</v>
-      </c>
-      <c r="F98" t="s">
-        <v>680</v>
-      </c>
-      <c r="G98" t="s">
         <v>681</v>
       </c>
+      <c r="E98"/>
+      <c r="F98"/>
       <c r="H98" t="s">
-        <v>158</v>
+        <v>682</v>
       </c>
       <c r="I98" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J98" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="K98"/>
       <c r="L98" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="M98" t="s">
-        <v>684</v>
+        <v>160</v>
       </c>
       <c r="N98" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O98" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -11345,44 +11392,44 @@
         <v>15</v>
       </c>
       <c r="B99" s="2">
-        <v>111475946</v>
+        <v>111476109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>90</v>
+        <v>689</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>647</v>
+        <v>691</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>160</v>
+        <v>692</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -11390,44 +11437,44 @@
         <v>15</v>
       </c>
       <c r="B100">
-        <v>111476134</v>
+        <v>111475946</v>
       </c>
       <c r="C100" t="s">
         <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E100" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="F100" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="G100" t="s">
-        <v>691</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s">
         <v>158</v>
       </c>
       <c r="I100" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="J100" t="s">
-        <v>693</v>
+        <v>655</v>
       </c>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="M100" t="s">
-        <v>694</v>
+        <v>160</v>
       </c>
       <c r="N100" t="s">
-        <v>695</v>
+        <v>43</v>
       </c>
       <c r="O100" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -11435,13 +11482,13 @@
         <v>15</v>
       </c>
       <c r="B101" s="2">
-        <v>111476169</v>
+        <v>111476134</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>697</v>
@@ -11453,24 +11500,26 @@
         <v>699</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>363</v>
+        <v>158</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="J101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>702</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -11478,35 +11527,39 @@
         <v>15</v>
       </c>
       <c r="B102">
-        <v>111476170</v>
+        <v>111476169</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>703</v>
-      </c>
-      <c r="E102"/>
-      <c r="F102"/>
+        <v>704</v>
+      </c>
+      <c r="E102" t="s">
+        <v>705</v>
+      </c>
+      <c r="F102" t="s">
+        <v>706</v>
+      </c>
       <c r="G102" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H102" t="s">
-        <v>705</v>
+        <v>363</v>
       </c>
       <c r="I102" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102" t="s">
-        <v>393</v>
+        <v>709</v>
       </c>
       <c r="M102" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="N102" t="s">
-        <v>380</v>
+        <v>693</v>
       </c>
       <c r="O102" t="s">
         <v>70</v>
@@ -11517,38 +11570,38 @@
         <v>15</v>
       </c>
       <c r="B103" s="2">
-        <v>111476055</v>
+        <v>111476170</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="G103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>712</v>
+      </c>
       <c r="H103" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2" t="s">
-        <v>712</v>
+        <v>393</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>160</v>
+        <v>715</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -11556,37 +11609,37 @@
         <v>15</v>
       </c>
       <c r="B104">
-        <v>111475961</v>
+        <v>111476055</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E104"/>
-      <c r="F104"/>
+      <c r="F104" t="s">
+        <v>717</v>
+      </c>
       <c r="H104" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="I104" t="s">
-        <v>715</v>
-      </c>
-      <c r="J104" t="s">
-        <v>716</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="J104"/>
       <c r="K104"/>
       <c r="L104" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="M104" t="s">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="N104" t="s">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="O104" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -11594,42 +11647,38 @@
         <v>15</v>
       </c>
       <c r="B105" s="2">
-        <v>111476065</v>
+        <v>111475961</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
-        <v>720</v>
-      </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>725</v>
+        <v>466</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>113</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -11637,39 +11686,39 @@
         <v>15</v>
       </c>
       <c r="B106">
-        <v>111476063</v>
+        <v>111476065</v>
       </c>
       <c r="C106" t="s">
         <v>45</v>
       </c>
       <c r="D106" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="E106" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>729</v>
       </c>
       <c r="I106" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="J106" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K106"/>
       <c r="L106" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="M106" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="N106" t="s">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="O106" t="s">
         <v>136</v>
@@ -11680,44 +11729,42 @@
         <v>15</v>
       </c>
       <c r="B107" s="2">
-        <v>111475964</v>
+        <v>111476063</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>732</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>63</v>
+        <v>734</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>733</v>
+        <v>20</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>160</v>
+        <v>737</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -11725,33 +11772,35 @@
         <v>15</v>
       </c>
       <c r="B108">
-        <v>111476047</v>
+        <v>111475964</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>737</v>
-      </c>
-      <c r="E108"/>
+        <v>738</v>
+      </c>
+      <c r="E108" t="s">
+        <v>739</v>
+      </c>
       <c r="F108" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G108" t="s">
-        <v>739</v>
+        <v>63</v>
       </c>
       <c r="H108" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I108" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>743</v>
       </c>
       <c r="K108"/>
       <c r="L108" t="s">
-        <v>32</v>
+        <v>744</v>
       </c>
       <c r="M108" t="s">
         <v>160</v>
@@ -11760,7 +11809,7 @@
         <v>43</v>
       </c>
       <c r="O108" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -11768,40 +11817,42 @@
         <v>15</v>
       </c>
       <c r="B109" s="2">
-        <v>111475981</v>
+        <v>111476047</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2" t="s">
-        <v>63</v>
+        <v>746</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>363</v>
+        <v>748</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="J109" s="2"/>
+        <v>749</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>745</v>
+        <v>32</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>746</v>
+        <v>160</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -11809,39 +11860,40 @@
         <v>15</v>
       </c>
       <c r="B110">
-        <v>111476177</v>
+        <v>111475981</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>748</v>
+        <v>63</v>
+      </c>
+      <c r="G110" t="s">
+        <v>751</v>
       </c>
       <c r="H110" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="I110" t="s">
-        <v>749</v>
-      </c>
-      <c r="J110" t="s">
-        <v>750</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="J110"/>
       <c r="K110"/>
       <c r="L110" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M110" t="s">
-        <v>620</v>
+        <v>754</v>
       </c>
       <c r="N110" t="s">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="O110" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -11849,38 +11901,40 @@
         <v>15</v>
       </c>
       <c r="B111" s="2">
-        <v>111476010</v>
+        <v>111476177</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>754</v>
+        <v>92</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="J111" s="2"/>
+        <v>757</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>758</v>
+      </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>176</v>
+        <v>510</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -11888,34 +11942,34 @@
         <v>15</v>
       </c>
       <c r="B112">
-        <v>111476011</v>
+        <v>111476010</v>
       </c>
       <c r="C112" t="s">
         <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H112" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="I112" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M112" t="s">
         <v>160</v>
       </c>
       <c r="N112" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O112" t="s">
         <v>24</v>
@@ -11926,7 +11980,7 @@
         <v>15</v>
       </c>
       <c r="B113" s="2">
-        <v>111476089</v>
+        <v>111476011</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
@@ -11936,32 +11990,28 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>762</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>765</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>766</v>
+        <v>160</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>428</v>
+        <v>161</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -11969,38 +12019,42 @@
         <v>15</v>
       </c>
       <c r="B114">
-        <v>111476066</v>
+        <v>111476089</v>
       </c>
       <c r="C114" t="s">
         <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>767</v>
-      </c>
-      <c r="G114"/>
+        <v>769</v>
+      </c>
+      <c r="G114" t="s">
+        <v>770</v>
+      </c>
       <c r="H114" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="I114" t="s">
-        <v>769</v>
-      </c>
-      <c r="J114"/>
+        <v>772</v>
+      </c>
+      <c r="J114" t="s">
+        <v>773</v>
+      </c>
       <c r="K114"/>
       <c r="L114" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M114" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="N114" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="O114" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -12008,40 +12062,38 @@
         <v>15</v>
       </c>
       <c r="B115" s="2">
-        <v>111476084</v>
+        <v>111476066</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>774</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -12049,44 +12101,39 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>111476143</v>
+        <v>111476084</v>
       </c>
       <c r="C116" t="s">
         <v>153</v>
       </c>
       <c r="D116" t="s">
-        <v>760</v>
-      </c>
-      <c r="E116" t="s">
-        <v>776</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="E116"/>
       <c r="F116" t="s">
-        <v>777</v>
-      </c>
-      <c r="G116" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H116" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I116" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J116" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K116"/>
       <c r="L116" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M116" t="s">
-        <v>262</v>
+        <v>783</v>
       </c>
       <c r="N116" t="s">
-        <v>428</v>
+        <v>96</v>
       </c>
       <c r="O116" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -12094,38 +12141,38 @@
         <v>15</v>
       </c>
       <c r="B117" s="2">
-        <v>111476142</v>
+        <v>111476143</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>785</v>
+        <v>262</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>428</v>
@@ -12139,38 +12186,38 @@
         <v>15</v>
       </c>
       <c r="B118">
-        <v>111476141</v>
+        <v>111476142</v>
       </c>
       <c r="C118" t="s">
         <v>153</v>
       </c>
       <c r="D118" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E118" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="F118" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="G118" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="H118" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="I118" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="J118" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="K118"/>
       <c r="L118" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="M118" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="N118" t="s">
         <v>428</v>
@@ -12184,40 +12231,44 @@
         <v>15</v>
       </c>
       <c r="B119" s="2">
-        <v>111475960</v>
+        <v>111476141</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>790</v>
+        <v>153</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="H119" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>323</v>
+        <v>797</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>34</v>
+        <v>428</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -12225,44 +12276,39 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <v>111476124</v>
+        <v>111475960</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>798</v>
       </c>
       <c r="D120" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E120" t="s">
-        <v>796</v>
-      </c>
-      <c r="F120" t="s">
-        <v>797</v>
-      </c>
-      <c r="G120" t="s">
-        <v>798</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F120"/>
       <c r="H120" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="I120" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J120" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="K120"/>
       <c r="L120" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="M120" t="s">
-        <v>802</v>
+        <v>323</v>
       </c>
       <c r="N120" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O120" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -12270,13 +12316,13 @@
         <v>15</v>
       </c>
       <c r="B121" s="2">
-        <v>111475978</v>
+        <v>111476124</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>804</v>
@@ -12288,24 +12334,26 @@
         <v>806</v>
       </c>
       <c r="H121" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2" t="s">
-        <v>756</v>
+        <v>809</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="N121" s="2"/>
+      <c r="N121" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="O121" s="2" t="s">
-        <v>24</v>
+        <v>394</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -12313,10 +12361,10 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <v>111476009</v>
+        <v>111475978</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
         <v>811</v>
@@ -12336,17 +12384,16 @@
       <c r="I122" t="s">
         <v>816</v>
       </c>
-      <c r="J122"/>
+      <c r="J122" t="s">
+        <v>817</v>
+      </c>
       <c r="K122"/>
       <c r="L122" t="s">
-        <v>817</v>
+        <v>764</v>
       </c>
       <c r="M122" t="s">
         <v>818</v>
       </c>
-      <c r="N122" t="s">
-        <v>113</v>
-      </c>
       <c r="O122" t="s">
         <v>24</v>
       </c>
@@ -12356,38 +12403,42 @@
         <v>15</v>
       </c>
       <c r="B123" s="2">
-        <v>111476194</v>
+        <v>111476009</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>822</v>
+      </c>
       <c r="H123" s="2" t="s">
-        <v>546</v>
+        <v>823</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="J123" s="2"/>
-      <c r="K123" s="2">
-        <v>6547845</v>
-      </c>
+      <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>323</v>
+        <v>826</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -12395,28 +12446,28 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <v>111476193</v>
+        <v>111476194</v>
       </c>
       <c r="C124" t="s">
         <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E124"/>
       <c r="F124"/>
       <c r="H124" t="s">
-        <v>822</v>
+        <v>546</v>
       </c>
       <c r="I124" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="J124"/>
       <c r="K124">
-        <v>6525748</v>
+        <v>6547845</v>
       </c>
       <c r="L124" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="M124" t="s">
         <v>323</v>
@@ -12433,42 +12484,38 @@
         <v>15</v>
       </c>
       <c r="B125" s="2">
-        <v>111476114</v>
+        <v>111476193</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>826</v>
-      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2">
-        <v>197068</v>
+        <v>6525748</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>829</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>830</v>
+        <v>323</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>394</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -12476,17 +12523,15 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <v>111475989</v>
+        <v>111476114</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>831</v>
-      </c>
-      <c r="E126" t="s">
         <v>832</v>
       </c>
+      <c r="E126"/>
       <c r="F126" t="s">
         <v>833</v>
       </c>
@@ -12500,7 +12545,9 @@
         <v>836</v>
       </c>
       <c r="J126"/>
-      <c r="K126"/>
+      <c r="K126">
+        <v>197068</v>
+      </c>
       <c r="L126" t="s">
         <v>837</v>
       </c>
@@ -12508,10 +12555,10 @@
         <v>838</v>
       </c>
       <c r="N126" t="s">
-        <v>428</v>
+        <v>510</v>
       </c>
       <c r="O126" t="s">
-        <v>24</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -12519,7 +12566,7 @@
         <v>15</v>
       </c>
       <c r="B127" s="2">
-        <v>111476094</v>
+        <v>111475989</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
@@ -12527,30 +12574,34 @@
       <c r="D127" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G127" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="H127" s="2" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>160</v>
+        <v>846</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -12558,41 +12609,34 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <v>111475821</v>
+        <v>111476094</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>841</v>
-      </c>
-      <c r="E128" t="s">
-        <v>842</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="E128"/>
       <c r="F128" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" t="s">
         <v>843</v>
       </c>
-      <c r="G128" t="s">
-        <v>844</v>
-      </c>
-      <c r="H128" t="s">
-        <v>845</v>
-      </c>
       <c r="I128" t="s">
-        <v>846</v>
-      </c>
-      <c r="J128" t="s">
-        <v>847</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="J128"/>
       <c r="K128"/>
       <c r="L128" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M128" t="s">
-        <v>849</v>
+        <v>160</v>
       </c>
       <c r="N128" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="O128" t="s">
         <v>239</v>
@@ -12603,15 +12647,17 @@
         <v>15</v>
       </c>
       <c r="B129" s="2">
-        <v>111476104</v>
+        <v>111475821</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="E129" s="2"/>
       <c r="F129" s="2" t="s">
         <v>851</v>
       </c>
@@ -12619,26 +12665,26 @@
         <v>852</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>92</v>
+        <v>853</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -12646,35 +12692,42 @@
         <v>15</v>
       </c>
       <c r="B130">
-        <v>111476138</v>
+        <v>111476104</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E130"/>
-      <c r="F130"/>
+      <c r="F130" t="s">
+        <v>859</v>
+      </c>
+      <c r="G130" t="s">
+        <v>860</v>
+      </c>
       <c r="H130" t="s">
-        <v>858</v>
+        <v>92</v>
       </c>
       <c r="I130" t="s">
-        <v>859</v>
-      </c>
-      <c r="J130"/>
+        <v>861</v>
+      </c>
+      <c r="J130" t="s">
+        <v>862</v>
+      </c>
       <c r="K130"/>
       <c r="L130" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="M130" t="s">
-        <v>160</v>
+        <v>864</v>
       </c>
       <c r="N130" t="s">
-        <v>861</v>
+        <v>176</v>
       </c>
       <c r="O130" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -12682,36 +12735,36 @@
         <v>15</v>
       </c>
       <c r="B131" s="2">
-        <v>111476108</v>
+        <v>111476138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>865</v>
+        <v>160</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -12719,44 +12772,35 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <v>111475927</v>
+        <v>111476108</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D132" t="s">
-        <v>866</v>
-      </c>
-      <c r="E132" t="s">
-        <v>867</v>
-      </c>
-      <c r="F132" t="s">
-        <v>868</v>
-      </c>
-      <c r="G132" t="s">
-        <v>869</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
       <c r="H132" t="s">
         <v>870</v>
       </c>
       <c r="I132" t="s">
         <v>871</v>
       </c>
-      <c r="J132" t="s">
-        <v>872</v>
-      </c>
+      <c r="J132"/>
       <c r="K132"/>
       <c r="L132" t="s">
+        <v>872</v>
+      </c>
+      <c r="M132" t="s">
         <v>873</v>
       </c>
-      <c r="M132" t="s">
-        <v>874</v>
-      </c>
       <c r="N132" t="s">
-        <v>113</v>
+        <v>869</v>
       </c>
       <c r="O132" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -12764,40 +12808,44 @@
         <v>15</v>
       </c>
       <c r="B133" s="2">
-        <v>111476112</v>
+        <v>111475927</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="E133" s="2"/>
       <c r="F133" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>877</v>
+      </c>
       <c r="H133" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2">
-        <v>701069</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K133" s="2"/>
       <c r="L133" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>160</v>
+        <v>882</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>113</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -12805,40 +12853,39 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <v>111476070</v>
+        <v>111476112</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134" t="s">
-        <v>881</v>
+      <c r="F134" t="s">
+        <v>884</v>
       </c>
       <c r="H134" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="I134" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="J134"/>
       <c r="K134">
-        <v>230693</v>
+        <v>701069</v>
       </c>
       <c r="L134" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="M134" t="s">
-        <v>885</v>
+        <v>160</v>
       </c>
       <c r="N134" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="O134" t="s">
-        <v>429</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -12846,34 +12893,34 @@
         <v>15</v>
       </c>
       <c r="B135" s="2">
-        <v>111476075</v>
+        <v>111476070</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="J135" s="2"/>
       <c r="K135" s="2">
-        <v>230692</v>
+        <v>230693</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>238</v>
@@ -12887,40 +12934,40 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <v>111476092</v>
+        <v>111476075</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D136" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E136"/>
-      <c r="F136" t="s">
+      <c r="F136"/>
+      <c r="G136" t="s">
+        <v>895</v>
+      </c>
+      <c r="H136" t="s">
+        <v>896</v>
+      </c>
+      <c r="I136" t="s">
+        <v>897</v>
+      </c>
+      <c r="J136"/>
+      <c r="K136">
+        <v>230692</v>
+      </c>
+      <c r="L136" t="s">
         <v>892</v>
       </c>
-      <c r="G136" t="s">
-        <v>893</v>
-      </c>
-      <c r="H136" t="s">
-        <v>894</v>
-      </c>
-      <c r="I136" t="s">
-        <v>895</v>
-      </c>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136" t="s">
-        <v>896</v>
-      </c>
       <c r="M136" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N136" t="s">
-        <v>34</v>
+        <v>238</v>
       </c>
       <c r="O136" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -12928,34 +12975,34 @@
         <v>15</v>
       </c>
       <c r="B137" s="2">
-        <v>111476091</v>
+        <v>111476092</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>34</v>
@@ -12969,34 +13016,34 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <v>111476090</v>
+        <v>111476091</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="G138" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="H138" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="I138" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="M138" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="N138" t="s">
         <v>34</v>
@@ -13010,37 +13057,37 @@
         <v>15</v>
       </c>
       <c r="B139" s="2">
-        <v>111476093</v>
+        <v>111476090</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2">
-        <v>701030</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="M139" s="2" t="s">
-        <v>160</v>
+        <v>911</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>436</v>
@@ -13051,42 +13098,39 @@
         <v>15</v>
       </c>
       <c r="B140">
-        <v>111476155</v>
+        <v>111476093</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E140" t="s">
-        <v>909</v>
-      </c>
-      <c r="F140" t="s">
-        <v>525</v>
-      </c>
-      <c r="G140" t="s">
-        <v>910</v>
-      </c>
+        <v>913</v>
+      </c>
+      <c r="F140"/>
       <c r="H140" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="I140" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="J140"/>
-      <c r="K140"/>
+      <c r="K140">
+        <v>701030</v>
+      </c>
       <c r="L140" t="s">
-        <v>913</v>
+        <v>196</v>
       </c>
       <c r="M140" t="s">
-        <v>914</v>
+        <v>160</v>
       </c>
       <c r="N140" t="s">
-        <v>915</v>
+        <v>360</v>
       </c>
       <c r="O140" t="s">
-        <v>177</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -13094,42 +13138,42 @@
         <v>15</v>
       </c>
       <c r="B141" s="2">
-        <v>111476130</v>
+        <v>111476155</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>916</v>
+        <v>525</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -13137,39 +13181,42 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>111476157</v>
+        <v>111476130</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>922</v>
-      </c>
-      <c r="E142"/>
+        <v>916</v>
+      </c>
+      <c r="E142" t="s">
+        <v>917</v>
+      </c>
       <c r="F142" t="s">
-        <v>345</v>
+        <v>924</v>
+      </c>
+      <c r="G142" t="s">
+        <v>925</v>
       </c>
       <c r="H142" t="s">
-        <v>363</v>
+        <v>926</v>
       </c>
       <c r="I142" t="s">
-        <v>923</v>
-      </c>
-      <c r="J142" t="s">
-        <v>924</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="J142"/>
       <c r="K142"/>
       <c r="L142" t="s">
-        <v>537</v>
+        <v>921</v>
       </c>
       <c r="M142" t="s">
-        <v>160</v>
+        <v>928</v>
       </c>
       <c r="N142" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="O142" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -13177,44 +13224,40 @@
         <v>15</v>
       </c>
       <c r="B143" s="2">
-        <v>111476008</v>
+        <v>111476157</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>927</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="E143" s="2"/>
       <c r="F143" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>928</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>929</v>
+        <v>363</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>847</v>
+        <v>932</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
-        <v>931</v>
+        <v>537</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>932</v>
+        <v>160</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>933</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -13222,7 +13265,7 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <v>111476115</v>
+        <v>111476008</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
@@ -13234,32 +13277,32 @@
         <v>935</v>
       </c>
       <c r="F144" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144" t="s">
         <v>936</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>937</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>938</v>
       </c>
-      <c r="I144" t="s">
-        <v>939</v>
-      </c>
       <c r="J144" t="s">
-        <v>940</v>
+        <v>855</v>
       </c>
       <c r="K144"/>
       <c r="L144" t="s">
+        <v>939</v>
+      </c>
+      <c r="M144" t="s">
+        <v>940</v>
+      </c>
+      <c r="N144" t="s">
         <v>941</v>
       </c>
-      <c r="M144" t="s">
-        <v>294</v>
-      </c>
-      <c r="N144" t="s">
-        <v>942</v>
-      </c>
       <c r="O144" t="s">
-        <v>394</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -13267,40 +13310,44 @@
         <v>15</v>
       </c>
       <c r="B145" s="2">
-        <v>111476121</v>
+        <v>111476115</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="J145" s="2"/>
+      <c r="J145" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>950</v>
+      </c>
       <c r="O145" s="2" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -13308,42 +13355,39 @@
         <v>15</v>
       </c>
       <c r="B146">
-        <v>111476106</v>
+        <v>111476121</v>
       </c>
       <c r="C146" t="s">
         <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E146" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F146" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G146" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H146" t="s">
-        <v>953</v>
+        <v>92</v>
       </c>
       <c r="I146" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146" t="s">
-        <v>717</v>
+        <v>956</v>
       </c>
       <c r="M146" t="s">
-        <v>955</v>
-      </c>
-      <c r="N146" t="s">
-        <v>921</v>
+        <v>23</v>
       </c>
       <c r="O146" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -13351,44 +13395,42 @@
         <v>15</v>
       </c>
       <c r="B147" s="2">
-        <v>111476258</v>
+        <v>111476106</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="J147" s="2"/>
-      <c r="K147" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>211</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -13396,42 +13438,44 @@
         <v>15</v>
       </c>
       <c r="B148">
-        <v>111476037</v>
+        <v>111476258</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E148" t="s">
-        <v>344</v>
+        <v>958</v>
       </c>
       <c r="F148" t="s">
-        <v>345</v>
+        <v>964</v>
       </c>
       <c r="G148" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="H148" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="I148" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J148"/>
-      <c r="K148"/>
+      <c r="K148" t="s">
+        <v>968</v>
+      </c>
       <c r="L148" t="s">
-        <v>966</v>
+        <v>725</v>
       </c>
       <c r="M148" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="N148" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="O148" t="s">
-        <v>969</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -13439,13 +13483,13 @@
         <v>15</v>
       </c>
       <c r="B149" s="2">
-        <v>111476038</v>
+        <v>111476037</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>344</v>
@@ -13454,27 +13498,27 @@
         <v>345</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -13482,19 +13526,19 @@
         <v>15</v>
       </c>
       <c r="B150">
-        <v>111475988</v>
+        <v>111476038</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E150" t="s">
-        <v>976</v>
+        <v>344</v>
       </c>
       <c r="F150" t="s">
-        <v>977</v>
+        <v>345</v>
       </c>
       <c r="G150" t="s">
         <v>978</v>
@@ -13505,21 +13549,19 @@
       <c r="I150" t="s">
         <v>980</v>
       </c>
-      <c r="J150" t="s">
-        <v>981</v>
-      </c>
+      <c r="J150"/>
       <c r="K150"/>
       <c r="L150" t="s">
+        <v>974</v>
+      </c>
+      <c r="M150" t="s">
+        <v>981</v>
+      </c>
+      <c r="N150" t="s">
         <v>982</v>
       </c>
-      <c r="M150" t="s">
-        <v>983</v>
-      </c>
-      <c r="N150" t="s">
-        <v>360</v>
-      </c>
       <c r="O150" t="s">
-        <v>24</v>
+        <v>977</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -13527,19 +13569,19 @@
         <v>15</v>
       </c>
       <c r="B151" s="2">
-        <v>111476181</v>
+        <v>111475988</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>986</v>
@@ -13550,19 +13592,21 @@
       <c r="I151" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="J151" s="2"/>
+      <c r="J151" s="2" t="s">
+        <v>989</v>
+      </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>323</v>
+        <v>991</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>34</v>
+        <v>360</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -13570,40 +13614,42 @@
         <v>15</v>
       </c>
       <c r="B152">
-        <v>111476167</v>
+        <v>111476181</v>
       </c>
       <c r="C152" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D152" t="s">
-        <v>990</v>
-      </c>
-      <c r="E152"/>
-      <c r="F152"/>
+        <v>992</v>
+      </c>
+      <c r="E152" t="s">
+        <v>993</v>
+      </c>
+      <c r="F152" t="s">
+        <v>525</v>
+      </c>
       <c r="G152" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H152" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="I152" t="s">
-        <v>993</v>
-      </c>
-      <c r="J152" t="s">
-        <v>994</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="J152"/>
       <c r="K152"/>
       <c r="L152" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="M152" t="s">
-        <v>996</v>
+        <v>323</v>
       </c>
       <c r="N152" t="s">
-        <v>997</v>
+        <v>34</v>
       </c>
       <c r="O152" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -13611,28 +13657,28 @@
         <v>15</v>
       </c>
       <c r="B153" s="2">
-        <v>111476030</v>
+        <v>111476167</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>998</v>
       </c>
       <c r="E153" s="2"/>
-      <c r="F153" s="2" t="s">
+      <c r="F153" s="2"/>
+      <c r="G153" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="J153" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
         <v>1003</v>
@@ -13641,10 +13687,10 @@
         <v>1004</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>113</v>
+        <v>1005</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -13652,40 +13698,40 @@
         <v>15</v>
       </c>
       <c r="B154">
-        <v>111476052</v>
+        <v>111476030</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D154" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E154" t="s">
         <v>1006</v>
       </c>
-      <c r="F154"/>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>1007</v>
+      </c>
       <c r="G154" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="H154" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I154" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="J154"/>
       <c r="K154"/>
       <c r="L154" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M154" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N154" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="O154" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -13693,40 +13739,40 @@
         <v>15</v>
       </c>
       <c r="B155" s="2">
-        <v>111475979</v>
+        <v>111476052</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="G155" s="2"/>
+      <c r="E155" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>1015</v>
+      </c>
       <c r="H155" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="J155" s="2"/>
-      <c r="K155" s="2">
-        <v>6391631</v>
-      </c>
+      <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>914</v>
+        <v>1019</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -13734,37 +13780,33 @@
         <v>15</v>
       </c>
       <c r="B156">
-        <v>111475969</v>
+        <v>111475979</v>
       </c>
       <c r="C156" t="s">
         <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1017</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="E156"/>
       <c r="F156" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="H156" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="I156" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1021</v>
-      </c>
+        <v>1023</v>
+      </c>
+      <c r="J156"/>
       <c r="K156">
-        <v>6380639</v>
+        <v>6391631</v>
       </c>
       <c r="L156" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="M156" t="s">
-        <v>1022</v>
+        <v>922</v>
       </c>
       <c r="N156" t="s">
         <v>113</v>
@@ -13778,36 +13820,38 @@
         <v>15</v>
       </c>
       <c r="B157" s="2">
-        <v>111475971</v>
+        <v>111475969</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
-        <v>65</v>
+        <v>1027</v>
       </c>
       <c r="I157" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K157" s="2">
+        <v>6380639</v>
+      </c>
+      <c r="L157" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2">
-        <v>6374437</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>1016</v>
-      </c>
       <c r="M157" s="2" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="N157" s="2" t="s">
         <v>113</v>
@@ -13821,44 +13865,41 @@
         <v>15</v>
       </c>
       <c r="B158">
-        <v>111476187</v>
+        <v>111475971</v>
       </c>
       <c r="C158" t="s">
-        <v>790</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E158" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="F158" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G158" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="H158" t="s">
-        <v>772</v>
+        <v>65</v>
       </c>
       <c r="I158" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K158"/>
+        <v>1032</v>
+      </c>
+      <c r="J158"/>
+      <c r="K158">
+        <v>6374437</v>
+      </c>
       <c r="L158" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="M158" t="s">
         <v>1033</v>
       </c>
       <c r="N158" t="s">
-        <v>695</v>
+        <v>113</v>
       </c>
       <c r="O158" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -13866,40 +13907,44 @@
         <v>15</v>
       </c>
       <c r="B159" s="2">
-        <v>111475942</v>
+        <v>111476187</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>798</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="E159" s="2" t="s">
+        <v>1035</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G159" s="2"/>
+        <v>1036</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1037</v>
+      </c>
       <c r="H159" s="2" t="s">
-        <v>1036</v>
+        <v>780</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
-        <v>537</v>
+        <v>1040</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>160</v>
+        <v>1041</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>113</v>
+        <v>703</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -13907,34 +13952,36 @@
         <v>15</v>
       </c>
       <c r="B160">
-        <v>111475966</v>
+        <v>111475942</v>
       </c>
       <c r="C160" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160" t="s">
-        <v>1040</v>
+      <c r="F160" t="s">
+        <v>1043</v>
       </c>
       <c r="H160" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="I160" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="J160" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="K160"/>
       <c r="L160" t="s">
         <v>537</v>
       </c>
       <c r="M160" t="s">
-        <v>620</v>
+        <v>160</v>
+      </c>
+      <c r="N160" t="s">
+        <v>113</v>
       </c>
       <c r="O160" t="s">
         <v>24</v>
@@ -13945,38 +13992,38 @@
         <v>15</v>
       </c>
       <c r="B161" s="2">
-        <v>111476056</v>
+        <v>111475966</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="H161" s="2" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="2" t="s">
         <v>537</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N161" s="2" t="s">
-        <v>1048</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="N161" s="2"/>
       <c r="O161" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -13984,36 +14031,37 @@
         <v>15</v>
       </c>
       <c r="B162">
-        <v>111476161</v>
+        <v>111476056</v>
       </c>
       <c r="C162" t="s">
         <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="E162"/>
       <c r="F162"/>
-      <c r="G162"/>
       <c r="H162" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="I162" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J162"/>
+        <v>1054</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1055</v>
+      </c>
       <c r="K162"/>
       <c r="L162" t="s">
         <v>537</v>
       </c>
       <c r="M162" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="N162" t="s">
-        <v>685</v>
+        <v>1056</v>
       </c>
       <c r="O162" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -14021,37 +14069,33 @@
         <v>15</v>
       </c>
       <c r="B163" s="2">
-        <v>111476162</v>
+        <v>111476161</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>1051</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>1054</v>
-      </c>
+        <v>1058</v>
+      </c>
+      <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2" t="s">
         <v>537</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>70</v>
@@ -14062,42 +14106,39 @@
         <v>15</v>
       </c>
       <c r="B164">
-        <v>111475936</v>
+        <v>111476162</v>
       </c>
       <c r="C164" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E164" t="s">
-        <v>344</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G164"/>
+        <v>1059</v>
+      </c>
+      <c r="F164"/>
       <c r="H164" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="I164" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="J164" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="K164"/>
       <c r="L164" t="s">
-        <v>1060</v>
+        <v>537</v>
       </c>
       <c r="M164" t="s">
-        <v>1061</v>
+        <v>68</v>
       </c>
       <c r="N164" t="s">
-        <v>1062</v>
+        <v>693</v>
       </c>
       <c r="O164" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -14105,40 +14146,42 @@
         <v>15</v>
       </c>
       <c r="B165" s="2">
-        <v>111476131</v>
+        <v>111475936</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="E165" s="2"/>
+      <c r="E165" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>1051</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="G165" s="2"/>
       <c r="H165" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J165" s="2"/>
+        <v>1066</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>1067</v>
+      </c>
       <c r="K165" s="2"/>
       <c r="L165" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>472</v>
+        <v>1069</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>113</v>
+        <v>1070</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -14146,44 +14189,40 @@
         <v>15</v>
       </c>
       <c r="B166">
-        <v>111476012</v>
+        <v>111476131</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1068</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="E166"/>
       <c r="F166" t="s">
-        <v>1069</v>
+        <v>63</v>
       </c>
       <c r="G166" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="H166" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I166" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J166" t="s">
         <v>1073</v>
       </c>
+      <c r="J166"/>
       <c r="K166"/>
       <c r="L166" t="s">
         <v>1074</v>
       </c>
       <c r="M166" t="s">
-        <v>1075</v>
+        <v>472</v>
       </c>
       <c r="N166" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="O166" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -14191,38 +14230,38 @@
         <v>15</v>
       </c>
       <c r="B167" s="2">
-        <v>111476013</v>
+        <v>111476012</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="2" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>200</v>
@@ -14236,41 +14275,44 @@
         <v>15</v>
       </c>
       <c r="B168">
-        <v>111476175</v>
+        <v>111476013</v>
       </c>
       <c r="C168" t="s">
         <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E168" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F168" t="s">
-        <v>1082</v>
+        <v>1077</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1084</v>
       </c>
       <c r="H168" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="I168" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="J168" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="K168"/>
       <c r="L168" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="M168" t="s">
-        <v>160</v>
+        <v>1087</v>
       </c>
       <c r="N168" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="O168" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:15">
@@ -14278,42 +14320,42 @@
         <v>15</v>
       </c>
       <c r="B169" s="2">
-        <v>111475985</v>
+        <v>111476175</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1094</v>
+        <v>160</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>360</v>
+        <v>34</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -14321,10 +14363,10 @@
         <v>15</v>
       </c>
       <c r="B170">
-        <v>111476147</v>
+        <v>111475985</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
         <v>1095</v>
@@ -14332,26 +14374,30 @@
       <c r="E170" t="s">
         <v>1096</v>
       </c>
-      <c r="F170"/>
+      <c r="F170" t="s">
+        <v>1097</v>
+      </c>
       <c r="H170" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="I170" t="s">
-        <v>1098</v>
-      </c>
-      <c r="J170"/>
+        <v>1099</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1100</v>
+      </c>
       <c r="K170"/>
       <c r="L170" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="M170" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="N170" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="O170" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -14359,40 +14405,38 @@
         <v>15</v>
       </c>
       <c r="B171" s="2">
-        <v>111476137</v>
+        <v>111476147</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="J171" s="2"/>
-      <c r="K171" s="2">
-        <v>6518376</v>
-      </c>
+      <c r="K171" s="2"/>
       <c r="L171" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>160</v>
+        <v>1108</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>1106</v>
+        <v>428</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -14400,38 +14444,39 @@
         <v>15</v>
       </c>
       <c r="B172">
-        <v>111476086</v>
+        <v>111476137</v>
       </c>
       <c r="C172" t="s">
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E172"/>
+        <v>1109</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1110</v>
+      </c>
       <c r="F172"/>
-      <c r="G172" t="s">
-        <v>1108</v>
-      </c>
       <c r="H172" t="s">
-        <v>92</v>
+        <v>1111</v>
       </c>
       <c r="I172" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="J172"/>
-      <c r="K172"/>
+      <c r="K172">
+        <v>6518376</v>
+      </c>
       <c r="L172" t="s">
-        <v>119</v>
+        <v>1113</v>
       </c>
       <c r="M172" t="s">
-        <v>1110</v>
+        <v>160</v>
       </c>
       <c r="N172" t="s">
-        <v>176</v>
+        <v>1114</v>
       </c>
       <c r="O172" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -14439,38 +14484,38 @@
         <v>15</v>
       </c>
       <c r="B173" s="2">
-        <v>111476135</v>
+        <v>111476086</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>1112</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>1116</v>
+      </c>
       <c r="H173" s="2" t="s">
-        <v>1113</v>
+        <v>92</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2" t="s">
-        <v>1115</v>
+        <v>119</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>160</v>
+        <v>1118</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>921</v>
+        <v>176</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -14478,41 +14523,37 @@
         <v>15</v>
       </c>
       <c r="B174">
-        <v>111475938</v>
+        <v>111476135</v>
       </c>
       <c r="C174" t="s">
         <v>153</v>
       </c>
       <c r="D174" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E174" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1118</v>
-      </c>
+        <v>1120</v>
+      </c>
+      <c r="F174"/>
       <c r="H174" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="I174" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1121</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="J174"/>
       <c r="K174"/>
       <c r="L174" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="M174" t="s">
-        <v>1122</v>
+        <v>160</v>
       </c>
       <c r="N174" t="s">
-        <v>161</v>
+        <v>929</v>
       </c>
       <c r="O174" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:15">
@@ -14520,42 +14561,42 @@
         <v>15</v>
       </c>
       <c r="B175" s="2">
-        <v>111476098</v>
+        <v>111475938</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E175" s="2"/>
+        <v>1124</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>1125</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>1125</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="G175" s="2"/>
       <c r="H175" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="M175" s="2" t="s">
         <v>1130</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>1131</v>
+        <v>161</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>429</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -14563,40 +14604,42 @@
         <v>15</v>
       </c>
       <c r="B176">
-        <v>111475982</v>
+        <v>111476098</v>
       </c>
       <c r="C176" t="s">
-        <v>790</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E176"/>
+      <c r="F176" t="s">
         <v>1132</v>
       </c>
-      <c r="E176" t="s">
+      <c r="G176" t="s">
         <v>1133</v>
       </c>
-      <c r="F176"/>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>1134</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>1135</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>1136</v>
       </c>
-      <c r="J176"/>
       <c r="K176"/>
       <c r="L176" t="s">
         <v>1137</v>
       </c>
       <c r="M176" t="s">
-        <v>294</v>
+        <v>1138</v>
       </c>
       <c r="N176" t="s">
-        <v>360</v>
+        <v>1139</v>
       </c>
       <c r="O176" t="s">
-        <v>24</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:15">
@@ -14604,33 +14647,31 @@
         <v>15</v>
       </c>
       <c r="B177" s="2">
-        <v>111475954</v>
+        <v>111475982</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>25</v>
+        <v>798</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>1138</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="F177" s="2"/>
       <c r="G177" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>294</v>
@@ -14647,39 +14688,39 @@
         <v>15</v>
       </c>
       <c r="B178">
-        <v>111475975</v>
+        <v>111475954</v>
       </c>
       <c r="C178" t="s">
         <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E178" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F178" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="G178" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="H178" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="I178" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="J178"/>
       <c r="K178"/>
       <c r="L178" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="M178" t="s">
-        <v>1149</v>
+        <v>294</v>
       </c>
       <c r="N178" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="O178" t="s">
         <v>24</v>
@@ -14690,7 +14731,7 @@
         <v>15</v>
       </c>
       <c r="B179" s="2">
-        <v>111476179</v>
+        <v>111475975</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>25</v>
@@ -14699,35 +14740,33 @@
         <v>1150</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>90</v>
+        <v>1151</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>63</v>
+        <v>1152</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>363</v>
+        <v>1154</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>1155</v>
+      </c>
+      <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>160</v>
+        <v>1157</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -14735,13 +14774,13 @@
         <v>15</v>
       </c>
       <c r="B180">
-        <v>111476180</v>
+        <v>111476179</v>
       </c>
       <c r="C180" t="s">
         <v>25</v>
       </c>
       <c r="D180" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="E180" t="s">
         <v>90</v>
@@ -14750,26 +14789,26 @@
         <v>63</v>
       </c>
       <c r="G180" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="H180" t="s">
-        <v>1155</v>
+        <v>363</v>
       </c>
       <c r="I180" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="J180" t="s">
         <v>50</v>
       </c>
       <c r="K180"/>
       <c r="L180" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="M180" t="s">
         <v>160</v>
       </c>
       <c r="N180" t="s">
-        <v>640</v>
+        <v>176</v>
       </c>
       <c r="O180" t="s">
         <v>239</v>
@@ -14780,38 +14819,44 @@
         <v>15</v>
       </c>
       <c r="B181" s="2">
-        <v>111476044</v>
+        <v>111476180</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+        <v>1158</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G181" s="2" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J181" s="2"/>
+        <v>1164</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2" t="s">
         <v>1161</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1162</v>
+        <v>160</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>1163</v>
+        <v>648</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -14819,44 +14864,38 @@
         <v>15</v>
       </c>
       <c r="B182">
-        <v>111476051</v>
+        <v>111476044</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E182" t="s">
         <v>1165</v>
       </c>
-      <c r="F182" t="s">
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182" t="s">
         <v>1166</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>1167</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>1168</v>
       </c>
-      <c r="I182" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1170</v>
-      </c>
+      <c r="J182"/>
       <c r="K182"/>
       <c r="L182" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M182" t="s">
+        <v>1170</v>
+      </c>
+      <c r="N182" t="s">
         <v>1171</v>
       </c>
-      <c r="M182" t="s">
-        <v>1172</v>
-      </c>
-      <c r="N182" t="s">
-        <v>1173</v>
-      </c>
       <c r="O182" t="s">
-        <v>414</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:15">
@@ -14864,17 +14903,19 @@
         <v>15</v>
       </c>
       <c r="B183" s="2">
-        <v>111476005</v>
+        <v>111476051</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>1175</v>
@@ -14885,19 +14926,21 @@
       <c r="I183" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="J183" s="2"/>
+      <c r="J183" s="2" t="s">
+        <v>1178</v>
+      </c>
       <c r="K183" s="2"/>
       <c r="L183" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>24</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:15">
@@ -14905,42 +14948,40 @@
         <v>15</v>
       </c>
       <c r="B184">
-        <v>111476168</v>
+        <v>111476005</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E184" t="s">
         <v>1182</v>
       </c>
+      <c r="E184"/>
       <c r="F184" t="s">
+        <v>63</v>
+      </c>
+      <c r="G184" t="s">
         <v>1183</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>1184</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>1185</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1186</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
       <c r="L184" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M184" t="s">
         <v>1187</v>
       </c>
-      <c r="M184" t="s">
+      <c r="N184" t="s">
         <v>1188</v>
       </c>
-      <c r="N184" t="s">
-        <v>485</v>
-      </c>
       <c r="O184" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -14948,39 +14989,39 @@
         <v>15</v>
       </c>
       <c r="B185" s="2">
-        <v>111476171</v>
+        <v>111476168</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>360</v>
+        <v>485</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>70</v>
@@ -14991,44 +15032,42 @@
         <v>15</v>
       </c>
       <c r="B186">
-        <v>111475984</v>
+        <v>111476171</v>
       </c>
       <c r="C186" t="s">
         <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E186" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F186" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G186" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H186" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I186" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J186" t="s">
-        <v>981</v>
-      </c>
+        <v>1199</v>
+      </c>
+      <c r="J186"/>
       <c r="K186"/>
       <c r="L186" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="M186" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="N186" t="s">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="O186" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -15036,42 +15075,44 @@
         <v>15</v>
       </c>
       <c r="B187" s="2">
-        <v>111476061</v>
+        <v>111475984</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E187" s="2"/>
+        <v>1201</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>1202</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>1138</v>
+        <v>1203</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1204</v>
+        <v>989</v>
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="2" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>211</v>
+        <v>648</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:15">
@@ -15079,38 +15120,42 @@
         <v>15</v>
       </c>
       <c r="B188">
-        <v>111476049</v>
+        <v>111476061</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D188" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E188"/>
-      <c r="F188"/>
+      <c r="F188" t="s">
+        <v>1146</v>
+      </c>
       <c r="G188" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H188" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="I188" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J188"/>
+        <v>1211</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1212</v>
+      </c>
       <c r="K188"/>
       <c r="L188" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="M188" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="N188" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="O188" t="s">
-        <v>414</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -15118,42 +15163,38 @@
         <v>15</v>
       </c>
       <c r="B189" s="2">
-        <v>111476154</v>
+        <v>111476049</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>23</v>
+        <v>1220</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>177</v>
+        <v>414</v>
       </c>
     </row>
     <row r="190" spans="1:15">
@@ -15161,44 +15202,42 @@
         <v>15</v>
       </c>
       <c r="B190">
-        <v>111476068</v>
+        <v>111476154</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D190" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="E190" t="s">
-        <v>642</v>
+        <v>1222</v>
       </c>
       <c r="F190" t="s">
-        <v>1219</v>
+        <v>63</v>
       </c>
       <c r="G190" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="H190" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="I190" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J190" t="s">
-        <v>647</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="J190"/>
       <c r="K190"/>
       <c r="L190" t="s">
-        <v>648</v>
+        <v>1226</v>
       </c>
       <c r="M190" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="N190" t="s">
         <v>200</v>
       </c>
       <c r="O190" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -15206,42 +15245,44 @@
         <v>15</v>
       </c>
       <c r="B191" s="2">
-        <v>111476035</v>
+        <v>111476068</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E191" s="2"/>
+        <v>1227</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>1228</v>
+        <v>655</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2" t="s">
-        <v>1229</v>
+        <v>656</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -15249,37 +15290,42 @@
         <v>15</v>
       </c>
       <c r="B192">
-        <v>111476082</v>
+        <v>111476035</v>
       </c>
       <c r="C192" t="s">
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E192"/>
       <c r="F192" t="s">
-        <v>1231</v>
+        <v>1232</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1233</v>
       </c>
       <c r="H192" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="I192" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J192"/>
+        <v>1235</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1236</v>
+      </c>
       <c r="K192"/>
       <c r="L192" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="M192" t="s">
-        <v>865</v>
+        <v>23</v>
       </c>
       <c r="N192" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="O192" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -15287,40 +15333,38 @@
         <v>15</v>
       </c>
       <c r="B193" s="2">
-        <v>111476119</v>
+        <v>111476082</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>1237</v>
-      </c>
+        <v>1239</v>
+      </c>
+      <c r="G193" s="2"/>
       <c r="H193" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1241</v>
+        <v>873</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>394</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -15328,42 +15372,40 @@
         <v>15</v>
       </c>
       <c r="B194">
-        <v>111476064</v>
+        <v>111476119</v>
       </c>
       <c r="C194" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E194"/>
       <c r="F194" t="s">
-        <v>156</v>
+        <v>1244</v>
       </c>
       <c r="G194" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H194" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="I194" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1246</v>
-      </c>
+        <v>1247</v>
+      </c>
+      <c r="J194"/>
       <c r="K194"/>
       <c r="L194" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="M194" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="N194" t="s">
-        <v>1249</v>
+        <v>176</v>
       </c>
       <c r="O194" t="s">
-        <v>136</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:15">
@@ -15371,42 +15413,42 @@
         <v>15</v>
       </c>
       <c r="B195" s="2">
-        <v>111476020</v>
+        <v>111476064</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="I195" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="H195" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I195" s="2" t="s">
+      <c r="J195" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2" t="s">
         <v>1255</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>1199</v>
+        <v>1256</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>176</v>
+        <v>1257</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>635</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196" spans="1:15">
@@ -15414,35 +15456,42 @@
         <v>15</v>
       </c>
       <c r="B196">
-        <v>111476039</v>
+        <v>111476020</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E196"/>
-      <c r="F196"/>
+        <v>1258</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1261</v>
+      </c>
       <c r="H196" t="s">
-        <v>1257</v>
+        <v>92</v>
       </c>
       <c r="I196" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="J196"/>
       <c r="K196"/>
       <c r="L196" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="M196" t="s">
-        <v>1260</v>
+        <v>1207</v>
       </c>
       <c r="N196" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="O196" t="s">
-        <v>969</v>
+        <v>635</v>
       </c>
     </row>
     <row r="197" spans="1:15">
@@ -15450,39 +15499,76 @@
         <v>15</v>
       </c>
       <c r="B197" s="2">
-        <v>111475941</v>
+        <v>111476039</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>1262</v>
-      </c>
+        <v>1264</v>
+      </c>
+      <c r="E197" s="2"/>
       <c r="F197" s="2"/>
-      <c r="G197" s="2" t="s">
-        <v>1263</v>
-      </c>
+      <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>620</v>
+        <v>1268</v>
       </c>
       <c r="N197" s="2" t="s">
         <v>113</v>
       </c>
       <c r="O197" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>111475941</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F198"/>
+      <c r="G198" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M198" t="s">
+        <v>620</v>
+      </c>
+      <c r="N198" t="s">
+        <v>113</v>
+      </c>
+      <c r="O198" t="s">
         <v>24</v>
       </c>
     </row>

--- a/joe_data/scraped/joe_2025_all_sections.xlsx
+++ b/joe_data/scraped/joe_2025_all_sections.xlsx
@@ -26859,7 +26859,7 @@
         <v>1702</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>150</v>
+        <v>1613</v>
       </c>
       <c r="O291" s="2" t="s">
         <v>815</v>
